--- a/biology/Histoire de la zoologie et de la botanique/Joan_Gideon_Loten/Joan_Gideon_Loten.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joan_Gideon_Loten/Joan_Gideon_Loten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joan Gideon Loten (Sint-Maartensdijk, 16 mai 1710-Utrecht, 25 février 1789) est un administrateur colonial et naturaliste hollandais, gouverneur du Ceylan néerlandais de 1752 à 1757.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université d'Utrecht (1726) où il est élève de Pieter van Musschenbroek et arrive en Inde en 1732 comme membre de la Compagnie néerlandaise des Indes orientales.
 D'abord Gouverneur de Makassar (1744-1750), il est nommé Gouverneur de Batavia, Ceylan et de l'archipel des Célèbes le 10 septembre 1752, poste qu'il conservera jusqu'au 17 mars 1757.
@@ -546,7 +560,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est élu membre de la Royal Society en 1760 et de la Society of Antiquaries of London en 1761.
 Thomas Banks réalise en son honneur en 1795 un monument impressionnant dans l'abbaye de Westminster.
@@ -578,7 +594,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Correspondentie van Johan Gideon Loten, 1737
 Memoir, publié en 1935
